--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Slit2-Gpc1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Slit2-Gpc1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.09783033333333334</v>
+        <v>0.2160193333333333</v>
       </c>
       <c r="H2">
-        <v>0.293491</v>
+        <v>0.648058</v>
       </c>
       <c r="I2">
-        <v>0.01145526398792098</v>
+        <v>0.02486881244588016</v>
       </c>
       <c r="J2">
-        <v>0.01145526398792098</v>
+        <v>0.02486881244588016</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.407369</v>
+        <v>1.646588666666666</v>
       </c>
       <c r="N2">
-        <v>7.222106999999999</v>
+        <v>4.939766</v>
       </c>
       <c r="O2">
-        <v>0.05267229306167104</v>
+        <v>0.039310317935267</v>
       </c>
       <c r="P2">
-        <v>0.05267229306167105</v>
+        <v>0.039310317935267</v>
       </c>
       <c r="Q2">
-        <v>0.2355137117263333</v>
+        <v>0.3556949860475555</v>
       </c>
       <c r="R2">
-        <v>2.119623405537</v>
+        <v>3.201254874428</v>
       </c>
       <c r="S2">
-        <v>0.0006033750218705805</v>
+        <v>0.0009776009239200738</v>
       </c>
       <c r="T2">
-        <v>0.0006033750218705806</v>
+        <v>0.0009776009239200743</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.09783033333333334</v>
+        <v>0.2160193333333333</v>
       </c>
       <c r="H3">
-        <v>0.293491</v>
+        <v>0.648058</v>
       </c>
       <c r="I3">
-        <v>0.01145526398792098</v>
+        <v>0.02486881244588016</v>
       </c>
       <c r="J3">
-        <v>0.01145526398792098</v>
+        <v>0.02486881244588016</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>35.032622</v>
       </c>
       <c r="O3">
-        <v>0.2555000268900398</v>
+        <v>0.278787195370394</v>
       </c>
       <c r="P3">
-        <v>0.2555000268900398</v>
+        <v>0.278787195370394</v>
       </c>
       <c r="Q3">
-        <v>1.142417695933556</v>
+        <v>2.522574549786222</v>
       </c>
       <c r="R3">
-        <v>10.281759263402</v>
+        <v>22.703170948076</v>
       </c>
       <c r="S3">
-        <v>0.002926820256946315</v>
+        <v>0.006933106473979276</v>
       </c>
       <c r="T3">
-        <v>0.002926820256946316</v>
+        <v>0.006933106473979278</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.09783033333333334</v>
+        <v>0.2160193333333333</v>
       </c>
       <c r="H4">
-        <v>0.293491</v>
+        <v>0.648058</v>
       </c>
       <c r="I4">
-        <v>0.01145526398792098</v>
+        <v>0.02486881244588016</v>
       </c>
       <c r="J4">
-        <v>0.01145526398792098</v>
+        <v>0.02486881244588016</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.130105</v>
+        <v>0.7553226666666667</v>
       </c>
       <c r="N4">
-        <v>9.390315000000001</v>
+        <v>2.265968</v>
       </c>
       <c r="O4">
-        <v>0.068485474338916</v>
+        <v>0.01803241742850595</v>
       </c>
       <c r="P4">
-        <v>0.068485474338916</v>
+        <v>0.01803241742850595</v>
       </c>
       <c r="Q4">
-        <v>0.3062192155183334</v>
+        <v>0.1631642989048889</v>
       </c>
       <c r="R4">
-        <v>2.755972939665</v>
+        <v>1.468478690144</v>
       </c>
       <c r="S4">
-        <v>0.0007845191878902711</v>
+        <v>0.000448444806975335</v>
       </c>
       <c r="T4">
-        <v>0.0007845191878902711</v>
+        <v>0.0004484448069753351</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.09783033333333334</v>
+        <v>0.2160193333333333</v>
       </c>
       <c r="H5">
-        <v>0.293491</v>
+        <v>0.648058</v>
       </c>
       <c r="I5">
-        <v>0.01145526398792098</v>
+        <v>0.02486881244588016</v>
       </c>
       <c r="J5">
-        <v>0.01145526398792098</v>
+        <v>0.02486881244588016</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.53984366666667</v>
+        <v>27.21325766666666</v>
       </c>
       <c r="N5">
-        <v>76.61953099999999</v>
+        <v>81.63977299999999</v>
       </c>
       <c r="O5">
-        <v>0.5588017999566871</v>
+        <v>0.6496836961088899</v>
       </c>
       <c r="P5">
-        <v>0.5588017999566871</v>
+        <v>0.6496836961088899</v>
       </c>
       <c r="Q5">
-        <v>2.498571419191222</v>
+        <v>5.878589778981556</v>
       </c>
       <c r="R5">
-        <v>22.487142772721</v>
+        <v>52.90730801083399</v>
       </c>
       <c r="S5">
-        <v>0.006401222135429263</v>
+        <v>0.01615686198767818</v>
       </c>
       <c r="T5">
-        <v>0.006401222135429263</v>
+        <v>0.01615686198767819</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.09783033333333334</v>
+        <v>0.2160193333333333</v>
       </c>
       <c r="H6">
-        <v>0.293491</v>
+        <v>0.648058</v>
       </c>
       <c r="I6">
-        <v>0.01145526398792098</v>
+        <v>0.02486881244588016</v>
       </c>
       <c r="J6">
-        <v>0.01145526398792098</v>
+        <v>0.02486881244588016</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.949797</v>
+        <v>0.5942236666666667</v>
       </c>
       <c r="N6">
-        <v>8.849391000000001</v>
+        <v>1.782671</v>
       </c>
       <c r="O6">
-        <v>0.06454040575268606</v>
+        <v>0.01418637315694314</v>
       </c>
       <c r="P6">
-        <v>0.06454040575268606</v>
+        <v>0.01418637315694314</v>
       </c>
       <c r="Q6">
-        <v>0.2885796237756667</v>
+        <v>0.1283638003242222</v>
       </c>
       <c r="R6">
-        <v>2.597216613981</v>
+        <v>1.155274202918</v>
       </c>
       <c r="S6">
-        <v>0.0007393273857845529</v>
+        <v>0.0003527982533272877</v>
       </c>
       <c r="T6">
-        <v>0.0007393273857845529</v>
+        <v>0.0003527982533272878</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>24.890459</v>
       </c>
       <c r="I7">
-        <v>0.9715009272022777</v>
+        <v>0.9551554900377276</v>
       </c>
       <c r="J7">
-        <v>0.9715009272022777</v>
+        <v>0.9551554900377278</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.407369</v>
+        <v>1.646588666666666</v>
       </c>
       <c r="N7">
-        <v>7.222106999999999</v>
+        <v>4.939766</v>
       </c>
       <c r="O7">
-        <v>0.05267229306167104</v>
+        <v>0.039310317935267</v>
       </c>
       <c r="P7">
-        <v>0.05267229306167105</v>
+        <v>0.039310317935267</v>
       </c>
       <c r="Q7">
-        <v>19.97350646412366</v>
+        <v>13.66144923251044</v>
       </c>
       <c r="R7">
-        <v>179.761558177113</v>
+        <v>122.953043092594</v>
       </c>
       <c r="S7">
-        <v>0.05117118154728351</v>
+        <v>0.03754746599099883</v>
       </c>
       <c r="T7">
-        <v>0.05117118154728351</v>
+        <v>0.03754746599099883</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>24.890459</v>
       </c>
       <c r="I8">
-        <v>0.9715009272022777</v>
+        <v>0.9551554900377276</v>
       </c>
       <c r="J8">
-        <v>0.9715009272022777</v>
+        <v>0.9551554900377278</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>35.032622</v>
       </c>
       <c r="O8">
-        <v>0.2555000268900398</v>
+        <v>0.278787195370394</v>
       </c>
       <c r="P8">
-        <v>0.2555000268900398</v>
+        <v>0.278787195370394</v>
       </c>
       <c r="Q8">
         <v>96.88644906149977</v>
@@ -948,10 +948,10 @@
         <v>871.978041553498</v>
       </c>
       <c r="S8">
-        <v>0.2482185130238805</v>
+        <v>0.2662851202102524</v>
       </c>
       <c r="T8">
-        <v>0.2482185130238805</v>
+        <v>0.2662851202102524</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>24.890459</v>
       </c>
       <c r="I9">
-        <v>0.9715009272022777</v>
+        <v>0.9551554900377276</v>
       </c>
       <c r="J9">
-        <v>0.9715009272022777</v>
+        <v>0.9551554900377278</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.130105</v>
+        <v>0.7553226666666667</v>
       </c>
       <c r="N9">
-        <v>9.390315000000001</v>
+        <v>2.265968</v>
       </c>
       <c r="O9">
-        <v>0.068485474338916</v>
+        <v>0.01803241742850595</v>
       </c>
       <c r="P9">
-        <v>0.068485474338916</v>
+        <v>0.01803241742850595</v>
       </c>
       <c r="Q9">
-        <v>25.96991672273167</v>
+        <v>6.266775955479111</v>
       </c>
       <c r="R9">
-        <v>233.729250504585</v>
+        <v>56.40098359931199</v>
       </c>
       <c r="S9">
-        <v>0.06653370182014469</v>
+        <v>0.01722376250548946</v>
       </c>
       <c r="T9">
-        <v>0.06653370182014469</v>
+        <v>0.01722376250548946</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>24.890459</v>
       </c>
       <c r="I10">
-        <v>0.9715009272022777</v>
+        <v>0.9551554900377276</v>
       </c>
       <c r="J10">
-        <v>0.9715009272022777</v>
+        <v>0.9551554900377278</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.53984366666667</v>
+        <v>27.21325766666666</v>
       </c>
       <c r="N10">
-        <v>76.61953099999999</v>
+        <v>81.63977299999999</v>
       </c>
       <c r="O10">
-        <v>0.5588017999566871</v>
+        <v>0.6496836961088899</v>
       </c>
       <c r="P10">
-        <v>0.5588017999566871</v>
+        <v>0.6496836961088899</v>
       </c>
       <c r="Q10">
-        <v>211.8994772171921</v>
+        <v>225.7834914028674</v>
       </c>
       <c r="R10">
-        <v>1907.095294954729</v>
+        <v>2032.051422625806</v>
       </c>
       <c r="S10">
-        <v>0.5428764667802232</v>
+        <v>0.6205489491264088</v>
       </c>
       <c r="T10">
-        <v>0.5428764667802232</v>
+        <v>0.6205489491264089</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>24.890459</v>
       </c>
       <c r="I11">
-        <v>0.9715009272022777</v>
+        <v>0.9551554900377276</v>
       </c>
       <c r="J11">
-        <v>0.9715009272022777</v>
+        <v>0.9551554900377278</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.949797</v>
+        <v>0.5942236666666667</v>
       </c>
       <c r="N11">
-        <v>8.849391000000001</v>
+        <v>1.782671</v>
       </c>
       <c r="O11">
-        <v>0.06454040575268606</v>
+        <v>0.01418637315694314</v>
       </c>
       <c r="P11">
-        <v>0.06454040575268606</v>
+        <v>0.01418637315694314</v>
       </c>
       <c r="Q11">
-        <v>24.47393376227433</v>
+        <v>4.930166603998778</v>
       </c>
       <c r="R11">
-        <v>220.265403860469</v>
+        <v>44.37149943598899</v>
       </c>
       <c r="S11">
-        <v>0.06270106403074573</v>
+        <v>0.01355019220457809</v>
       </c>
       <c r="T11">
-        <v>0.06270106403074573</v>
+        <v>0.01355019220457809</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.142734</v>
+        <v>0.173491</v>
       </c>
       <c r="H12">
-        <v>0.428202</v>
+        <v>0.520473</v>
       </c>
       <c r="I12">
-        <v>0.0167131767248595</v>
+        <v>0.01997281943922393</v>
       </c>
       <c r="J12">
-        <v>0.0167131767248595</v>
+        <v>0.01997281943922393</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.407369</v>
+        <v>1.646588666666666</v>
       </c>
       <c r="N12">
-        <v>7.222106999999999</v>
+        <v>4.939766</v>
       </c>
       <c r="O12">
-        <v>0.05267229306167104</v>
+        <v>0.039310317935267</v>
       </c>
       <c r="P12">
-        <v>0.05267229306167105</v>
+        <v>0.039310317935267</v>
       </c>
       <c r="Q12">
-        <v>0.3436134068459999</v>
+        <v>0.2856683143686666</v>
       </c>
       <c r="R12">
-        <v>3.092520661614</v>
+        <v>2.571014829318</v>
       </c>
       <c r="S12">
-        <v>0.0008803213424432991</v>
+        <v>0.0007851378822195737</v>
       </c>
       <c r="T12">
-        <v>0.0008803213424432992</v>
+        <v>0.000785137882219574</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.142734</v>
+        <v>0.173491</v>
       </c>
       <c r="H13">
-        <v>0.428202</v>
+        <v>0.520473</v>
       </c>
       <c r="I13">
-        <v>0.0167131767248595</v>
+        <v>0.01997281943922393</v>
       </c>
       <c r="J13">
-        <v>0.0167131767248595</v>
+        <v>0.01997281943922393</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>35.032622</v>
       </c>
       <c r="O13">
-        <v>0.2555000268900398</v>
+        <v>0.278787195370394</v>
       </c>
       <c r="P13">
-        <v>0.2555000268900398</v>
+        <v>0.278787195370394</v>
       </c>
       <c r="Q13">
-        <v>1.666782089516</v>
+        <v>2.025948207800667</v>
       </c>
       <c r="R13">
-        <v>15.001038805644</v>
+        <v>18.233533870206</v>
       </c>
       <c r="S13">
-        <v>0.00427021710261959</v>
+        <v>0.005568166315100524</v>
       </c>
       <c r="T13">
-        <v>0.004270217102619591</v>
+        <v>0.005568166315100526</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.142734</v>
+        <v>0.173491</v>
       </c>
       <c r="H14">
-        <v>0.428202</v>
+        <v>0.520473</v>
       </c>
       <c r="I14">
-        <v>0.0167131767248595</v>
+        <v>0.01997281943922393</v>
       </c>
       <c r="J14">
-        <v>0.0167131767248595</v>
+        <v>0.01997281943922393</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.130105</v>
+        <v>0.7553226666666667</v>
       </c>
       <c r="N14">
-        <v>9.390315000000001</v>
+        <v>2.265968</v>
       </c>
       <c r="O14">
-        <v>0.068485474338916</v>
+        <v>0.01803241742850595</v>
       </c>
       <c r="P14">
-        <v>0.068485474338916</v>
+        <v>0.01803241742850595</v>
       </c>
       <c r="Q14">
-        <v>0.44677240707</v>
+        <v>0.1310416847626666</v>
       </c>
       <c r="R14">
-        <v>4.02095166363</v>
+        <v>1.179375162864</v>
       </c>
       <c r="S14">
-        <v>0.001144609835712134</v>
+        <v>0.0003601582173522639</v>
       </c>
       <c r="T14">
-        <v>0.001144609835712134</v>
+        <v>0.0003601582173522641</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.142734</v>
+        <v>0.173491</v>
       </c>
       <c r="H15">
-        <v>0.428202</v>
+        <v>0.520473</v>
       </c>
       <c r="I15">
-        <v>0.0167131767248595</v>
+        <v>0.01997281943922393</v>
       </c>
       <c r="J15">
-        <v>0.0167131767248595</v>
+        <v>0.01997281943922393</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>25.53984366666667</v>
+        <v>27.21325766666666</v>
       </c>
       <c r="N15">
-        <v>76.61953099999999</v>
+        <v>81.63977299999999</v>
       </c>
       <c r="O15">
-        <v>0.5588017999566871</v>
+        <v>0.6496836961088899</v>
       </c>
       <c r="P15">
-        <v>0.5588017999566871</v>
+        <v>0.6496836961088899</v>
       </c>
       <c r="Q15">
-        <v>3.645404045918</v>
+        <v>4.721255285847666</v>
       </c>
       <c r="R15">
-        <v>32.80863641326199</v>
+        <v>42.49129757262899</v>
       </c>
       <c r="S15">
-        <v>0.009339353236845699</v>
+        <v>0.01297601515499049</v>
       </c>
       <c r="T15">
-        <v>0.009339353236845699</v>
+        <v>0.01297601515499049</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.142734</v>
+        <v>0.173491</v>
       </c>
       <c r="H16">
-        <v>0.428202</v>
+        <v>0.520473</v>
       </c>
       <c r="I16">
-        <v>0.0167131767248595</v>
+        <v>0.01997281943922393</v>
       </c>
       <c r="J16">
-        <v>0.0167131767248595</v>
+        <v>0.01997281943922393</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.949797</v>
+        <v>0.5942236666666667</v>
       </c>
       <c r="N16">
-        <v>8.849391000000001</v>
+        <v>1.782671</v>
       </c>
       <c r="O16">
-        <v>0.06454040575268606</v>
+        <v>0.01418637315694314</v>
       </c>
       <c r="P16">
-        <v>0.06454040575268606</v>
+        <v>0.01418637315694314</v>
       </c>
       <c r="Q16">
-        <v>0.421036324998</v>
+        <v>0.1030924581536667</v>
       </c>
       <c r="R16">
-        <v>3.789326924982</v>
+        <v>0.927832123383</v>
       </c>
       <c r="S16">
-        <v>0.001078675207238781</v>
+        <v>0.0002833418695610784</v>
       </c>
       <c r="T16">
-        <v>0.001078675207238781</v>
+        <v>0.0002833418695610785</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.002823666666666667</v>
+        <v>2.5E-05</v>
       </c>
       <c r="H17">
-        <v>0.008470999999999999</v>
+        <v>7.499999999999999E-05</v>
       </c>
       <c r="I17">
-        <v>0.0003306320849418846</v>
+        <v>2.878077168156263E-06</v>
       </c>
       <c r="J17">
-        <v>0.0003306320849418846</v>
+        <v>2.878077168156264E-06</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.407369</v>
+        <v>1.646588666666666</v>
       </c>
       <c r="N17">
-        <v>7.222106999999999</v>
+        <v>4.939766</v>
       </c>
       <c r="O17">
-        <v>0.05267229306167104</v>
+        <v>0.039310317935267</v>
       </c>
       <c r="P17">
-        <v>0.05267229306167105</v>
+        <v>0.039310317935267</v>
       </c>
       <c r="Q17">
-        <v>0.006797607599666666</v>
+        <v>4.116471666666666E-05</v>
       </c>
       <c r="R17">
-        <v>0.06117846839699999</v>
+        <v>0.0003704824499999999</v>
       </c>
       <c r="S17">
-        <v>1.741515007365026E-05</v>
+        <v>1.131381285224556E-07</v>
       </c>
       <c r="T17">
-        <v>1.741515007365026E-05</v>
+        <v>1.131381285224556E-07</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.002823666666666667</v>
+        <v>2.5E-05</v>
       </c>
       <c r="H18">
-        <v>0.008470999999999999</v>
+        <v>7.499999999999999E-05</v>
       </c>
       <c r="I18">
-        <v>0.0003306320849418846</v>
+        <v>2.878077168156263E-06</v>
       </c>
       <c r="J18">
-        <v>0.0003306320849418846</v>
+        <v>2.878077168156264E-06</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>35.032622</v>
       </c>
       <c r="O18">
-        <v>0.2555000268900398</v>
+        <v>0.278787195370394</v>
       </c>
       <c r="P18">
-        <v>0.2555000268900398</v>
+        <v>0.278787195370394</v>
       </c>
       <c r="Q18">
-        <v>0.03297348232911111</v>
+        <v>0.0002919385166666666</v>
       </c>
       <c r="R18">
-        <v>0.296761340962</v>
+        <v>0.00262744665</v>
       </c>
       <c r="S18">
-        <v>8.447650659336141E-05</v>
+        <v>8.023710617698503E-07</v>
       </c>
       <c r="T18">
-        <v>8.447650659336143E-05</v>
+        <v>8.023710617698506E-07</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.002823666666666667</v>
+        <v>2.5E-05</v>
       </c>
       <c r="H19">
-        <v>0.008470999999999999</v>
+        <v>7.499999999999999E-05</v>
       </c>
       <c r="I19">
-        <v>0.0003306320849418846</v>
+        <v>2.878077168156263E-06</v>
       </c>
       <c r="J19">
-        <v>0.0003306320849418846</v>
+        <v>2.878077168156264E-06</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.130105</v>
+        <v>0.7553226666666667</v>
       </c>
       <c r="N19">
-        <v>9.390315000000001</v>
+        <v>2.265968</v>
       </c>
       <c r="O19">
-        <v>0.068485474338916</v>
+        <v>0.01803241742850595</v>
       </c>
       <c r="P19">
-        <v>0.068485474338916</v>
+        <v>0.01803241742850595</v>
       </c>
       <c r="Q19">
-        <v>0.008838373151666667</v>
+        <v>1.888306666666667E-05</v>
       </c>
       <c r="R19">
-        <v>0.079545358365</v>
+        <v>0.0001699476</v>
       </c>
       <c r="S19">
-        <v>2.264349516890973E-05</v>
+        <v>5.189868888764604E-08</v>
       </c>
       <c r="T19">
-        <v>2.264349516890973E-05</v>
+        <v>5.189868888764605E-08</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.002823666666666667</v>
+        <v>2.5E-05</v>
       </c>
       <c r="H20">
-        <v>0.008470999999999999</v>
+        <v>7.499999999999999E-05</v>
       </c>
       <c r="I20">
-        <v>0.0003306320849418846</v>
+        <v>2.878077168156263E-06</v>
       </c>
       <c r="J20">
-        <v>0.0003306320849418846</v>
+        <v>2.878077168156264E-06</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>25.53984366666667</v>
+        <v>27.21325766666666</v>
       </c>
       <c r="N20">
-        <v>76.61953099999999</v>
+        <v>81.63977299999999</v>
       </c>
       <c r="O20">
-        <v>0.5588017999566871</v>
+        <v>0.6496836961088899</v>
       </c>
       <c r="P20">
-        <v>0.5588017999566871</v>
+        <v>0.6496836961088899</v>
       </c>
       <c r="Q20">
-        <v>0.07211600523344444</v>
+        <v>0.0006803314416666665</v>
       </c>
       <c r="R20">
-        <v>0.6490440471009999</v>
+        <v>0.006122982974999999</v>
       </c>
       <c r="S20">
-        <v>0.0001847578041889574</v>
+        <v>1.869839812294368E-06</v>
       </c>
       <c r="T20">
-        <v>0.0001847578041889574</v>
+        <v>1.869839812294368E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.002823666666666667</v>
+        <v>2.5E-05</v>
       </c>
       <c r="H21">
-        <v>0.008470999999999999</v>
+        <v>7.499999999999999E-05</v>
       </c>
       <c r="I21">
-        <v>0.0003306320849418846</v>
+        <v>2.878077168156263E-06</v>
       </c>
       <c r="J21">
-        <v>0.0003306320849418846</v>
+        <v>2.878077168156264E-06</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.949797</v>
+        <v>0.5942236666666667</v>
       </c>
       <c r="N21">
-        <v>8.849391000000001</v>
+        <v>1.782671</v>
       </c>
       <c r="O21">
-        <v>0.06454040575268606</v>
+        <v>0.01418637315694314</v>
       </c>
       <c r="P21">
-        <v>0.06454040575268606</v>
+        <v>0.01418637315694314</v>
       </c>
       <c r="Q21">
-        <v>0.008329243462333333</v>
+        <v>1.485559166666667E-05</v>
       </c>
       <c r="R21">
-        <v>0.074963191161</v>
+        <v>0.000133700325</v>
       </c>
       <c r="S21">
-        <v>2.133912891700579E-05</v>
+        <v>4.082947668194293E-08</v>
       </c>
       <c r="T21">
-        <v>2.133912891700579E-05</v>
+        <v>4.082947668194294E-08</v>
       </c>
     </row>
   </sheetData>
